--- a/Floorplan_B.xlsx
+++ b/Floorplan_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ihuipen_tudelft_nl/Documents/Documenten/1. UNI/3. Industrial Ecology/Year 2/ABM/Visual studio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isa\OneDrive - Delft University of Technology\Documenten\1. UNI\3. Industrial Ecology\Year 2\ABM\Visual studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC1048BA719E67D25ADE58E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E2D340-E6E9-449E-AE61-339221949DFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A265C984-C302-4701-8EA8-E05B420C5754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -72,10 +115,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,11 +382,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="34" width="2.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -458,92 +500,92 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
@@ -551,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>3</v>
@@ -562,31 +604,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -646,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -655,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>3</v>
@@ -738,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -1163,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1264,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1365,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1469,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1576,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1683,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1754,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1962,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2090,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2140,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2170,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2206,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2215,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>3</v>
@@ -2244,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2310,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2319,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>3</v>
@@ -2430,6 +2472,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>